--- a/Jogos_do_Dia/2022-12-16_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-16_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.49</v>
+        <v>2.48</v>
       </c>
       <c r="G2" t="n">
-        <v>3.83</v>
+        <v>3.65</v>
       </c>
       <c r="H2" t="n">
-        <v>2.66</v>
+        <v>2.43</v>
       </c>
       <c r="I2" t="n">
         <v>1.01</v>
@@ -742,10 +742,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6.13</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>3.72</v>
+        <v>3.3</v>
       </c>
       <c r="H3" t="n">
         <v>1.62</v>
@@ -763,10 +763,10 @@
         <v>2.8</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N3" t="n">
-        <v>1.77</v>
+        <v>1.61</v>
       </c>
       <c r="O3" t="n">
         <v>1.45</v>
@@ -805,25 +805,25 @@
         <v>3.09</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.08</v>
+        <v>3.5</v>
       </c>
       <c r="G4" t="n">
         <v>2.75</v>
       </c>
       <c r="H4" t="n">
-        <v>2.42</v>
+        <v>2.1</v>
       </c>
       <c r="I4" t="n">
         <v>1.14</v>
@@ -867,16 +867,16 @@
         <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="L4" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>2.77</v>
       </c>
       <c r="N4" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="O4" t="n">
         <v>1.67</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.62</v>
+        <v>3.3</v>
       </c>
       <c r="G5" t="n">
-        <v>3.24</v>
+        <v>3.2</v>
       </c>
       <c r="H5" t="n">
-        <v>2.18</v>
+        <v>1.98</v>
       </c>
       <c r="I5" t="n">
         <v>1.05</v>
@@ -983,10 +983,10 @@
         <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="N5" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="O5" t="n">
         <v>1.42</v>
@@ -1025,25 +1025,25 @@
         <v>3.33</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.75</v>
+        <v>1.46</v>
       </c>
       <c r="G6" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="H6" t="n">
-        <v>4.92</v>
+        <v>5.75</v>
       </c>
       <c r="I6" t="n">
         <v>1.05</v>
@@ -1093,10 +1093,10 @@
         <v>3.25</v>
       </c>
       <c r="M6" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="N6" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="O6" t="n">
         <v>1.35</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.32</v>
+        <v>3.25</v>
       </c>
       <c r="G7" t="n">
-        <v>3.13</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="I7" t="n">
         <v>1.1</v>
@@ -1203,10 +1203,10 @@
         <v>2.44</v>
       </c>
       <c r="M7" t="n">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="N7" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -1245,28 +1245,28 @@
         <v>2.8</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>2.61</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="8">
@@ -2282,10 +2282,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.47</v>
+        <v>2.48</v>
       </c>
       <c r="G17" t="n">
-        <v>3.66</v>
+        <v>3.35</v>
       </c>
       <c r="H17" t="n">
         <v>2.55</v>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="N17" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.53</v>
+        <v>2.48</v>
       </c>
       <c r="G18" t="n">
-        <v>3.82</v>
+        <v>3.55</v>
       </c>
       <c r="H18" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2612,52 +2612,52 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V20" t="n">
         <v>0.13</v>
@@ -2722,52 +2722,52 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="M21" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="N21" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R21" t="n">
         <v>2</v>
       </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="V21" t="n">
         <v>2</v>
@@ -2832,25 +2832,25 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="M22" t="n">
         <v>1.9</v>
@@ -2859,25 +2859,25 @@
         <v>1.9</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="V22" t="n">
         <v>2.14</v>
@@ -2942,52 +2942,52 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="V23" t="n">
         <v>1.25</v>
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="G24" t="n">
         <v>2.88</v>
       </c>
       <c r="H24" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="I24" t="n">
         <v>1.11</v>
@@ -3067,10 +3067,10 @@
         <v>6.75</v>
       </c>
       <c r="K24" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="L24" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="M24" t="n">
         <v>2.5</v>
@@ -3124,16 +3124,16 @@
         <v>2.05</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AE24" t="n">
         <v>1.9</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AH24" t="n">
         <v>0</v>
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="G25" t="n">
-        <v>3.36</v>
+        <v>3.3</v>
       </c>
       <c r="H25" t="n">
-        <v>3.58</v>
+        <v>3.4</v>
       </c>
       <c r="I25" t="n">
         <v>1.09</v>
@@ -3183,10 +3183,10 @@
         <v>2.8</v>
       </c>
       <c r="M25" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="N25" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O25" t="n">
         <v>1.49</v>
@@ -3272,52 +3272,52 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V26" t="n">
         <v>1.88</v>
@@ -3760,19 +3760,19 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="W30" t="n">
         <v>1.5</v>
       </c>
       <c r="X30" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="Y30" t="n">
         <v>1.25</v>
       </c>
       <c r="Z30" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="AA30" t="n">
         <v>0</v>
@@ -4313,7 +4313,7 @@
         <v>2.07</v>
       </c>
       <c r="W35" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="X35" t="n">
         <v>2.24</v>

--- a/Jogos_do_Dia/2022-12-16_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-16_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.48</v>
+        <v>2.26</v>
       </c>
       <c r="G2" t="n">
-        <v>3.65</v>
+        <v>3.54</v>
       </c>
       <c r="H2" t="n">
-        <v>2.43</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
         <v>1.01</v>
@@ -653,10 +653,10 @@
         <v>3.9</v>
       </c>
       <c r="M2" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="N2" t="n">
-        <v>2.12</v>
+        <v>2.03</v>
       </c>
       <c r="O2" t="n">
         <v>1.32</v>
@@ -704,7 +704,7 @@
         <v>2.11</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AE2" t="n">
         <v>1.27</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="G3" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="I3" t="n">
         <v>1.06</v>
@@ -763,10 +763,10 @@
         <v>2.8</v>
       </c>
       <c r="M3" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="N3" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="O3" t="n">
         <v>1.45</v>
@@ -814,7 +814,7 @@
         <v>1.36</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE3" t="n">
         <v>1.51</v>
@@ -826,7 +826,7 @@
         <v>2.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="G4" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="H4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
         <v>1.14</v>
@@ -867,16 +867,16 @@
         <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="L4" t="n">
-        <v>2.24</v>
+        <v>2.25</v>
       </c>
       <c r="M4" t="n">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="N4" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="O4" t="n">
         <v>1.67</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF4" t="n">
         <v>0</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="G5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="I5" t="n">
         <v>1.05</v>
@@ -983,7 +983,7 @@
         <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="N5" t="n">
         <v>1.7</v>
@@ -1034,7 +1034,7 @@
         <v>1.59</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE5" t="n">
         <v>1.53</v>
@@ -1046,7 +1046,7 @@
         <v>2.35</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="6">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="G6" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H6" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I6" t="n">
         <v>1.05</v>
@@ -1093,10 +1093,10 @@
         <v>3.25</v>
       </c>
       <c r="M6" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="N6" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O6" t="n">
         <v>1.35</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="H7" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="I7" t="n">
         <v>1.1</v>
@@ -1197,16 +1197,16 @@
         <v>7.25</v>
       </c>
       <c r="K7" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="L7" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="M7" t="n">
-        <v>2.55</v>
+        <v>2.41</v>
       </c>
       <c r="N7" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -1355,28 +1355,28 @@
         <v>2.82</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="9">
@@ -1465,28 +1465,28 @@
         <v>2.68</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="10">
@@ -1575,28 +1575,28 @@
         <v>3.27</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="11">
@@ -1685,28 +1685,28 @@
         <v>2.59</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="12">
@@ -1795,28 +1795,28 @@
         <v>3.01</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>13.75</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="13">
@@ -1905,28 +1905,28 @@
         <v>2.94</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="14">
@@ -2015,28 +2015,28 @@
         <v>3.64</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="15">
@@ -2125,28 +2125,28 @@
         <v>2.56</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>3.68</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="16">
@@ -2235,28 +2235,28 @@
         <v>2.99</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="17">
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.48</v>
+        <v>2.68</v>
       </c>
       <c r="G17" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="H17" t="n">
-        <v>2.55</v>
+        <v>2.23</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="N17" t="n">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.48</v>
+        <v>1.98</v>
       </c>
       <c r="G18" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="H18" t="n">
-        <v>2.45</v>
+        <v>2.95</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2413,10 +2413,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="N18" t="n">
-        <v>2.29</v>
+        <v>2.59</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="G20" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H20" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -2633,10 +2633,10 @@
         <v>4.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="N20" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="O20" t="n">
         <v>1.25</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H21" t="n">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
         <v>1.01</v>
@@ -2743,10 +2743,10 @@
         <v>3.6</v>
       </c>
       <c r="M21" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="N21" t="n">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
         <v>1.4</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="H22" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="I22" t="n">
         <v>1.01</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="H23" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I23" t="n">
         <v>1.02</v>
@@ -2963,10 +2963,10 @@
         <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="N23" t="n">
-        <v>2.25</v>
+        <v>2.19</v>
       </c>
       <c r="O23" t="n">
         <v>1.3</v>
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.14</v>
+        <v>2.11</v>
       </c>
       <c r="G24" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="H24" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I24" t="n">
         <v>1.11</v>
@@ -3067,13 +3067,13 @@
         <v>6.75</v>
       </c>
       <c r="K24" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="L24" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="M24" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="N24" t="n">
         <v>1.42</v>
@@ -3136,7 +3136,7 @@
         <v>3.42</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="25">
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="G25" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H25" t="n">
         <v>3.3</v>
-      </c>
-      <c r="H25" t="n">
-        <v>3.4</v>
       </c>
       <c r="I25" t="n">
         <v>1.09</v>
@@ -3183,10 +3183,10 @@
         <v>2.8</v>
       </c>
       <c r="M25" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="N25" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O25" t="n">
         <v>1.49</v>
@@ -3275,10 +3275,10 @@
         <v>3.75</v>
       </c>
       <c r="G26" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H26" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="I26" t="n">
         <v>1.01</v>
@@ -3293,10 +3293,10 @@
         <v>4.1</v>
       </c>
       <c r="M26" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="N26" t="n">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="O26" t="n">
         <v>1.3</v>
